--- a/xlsx/RT600换扇.xlsx
+++ b/xlsx/RT600换扇.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8F999D-4C5B-1242-BED2-8E3B95BA50DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C45F5FA-73C8-6E49-AF9D-B727AA9461A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="18040" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="18040" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GT3000</t>
+    <t>广镰GT3000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +468,7 @@
   <dimension ref="A1:AV4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AU4" sqref="AU4"/>
+      <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -941,6 +941,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="AQ1:AS1"/>
@@ -950,13 +957,6 @@
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/RT600换扇.xlsx
+++ b/xlsx/RT600换扇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C45F5FA-73C8-6E49-AF9D-B727AA9461A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A523D0E2-0C0E-0449-A963-2928AA088775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="18040" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FD12V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P2Pro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FK12V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,6 +90,14 @@
   </si>
   <si>
     <t>广镰GT3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK12 V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD12 V2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
   <dimension ref="A1:AV4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AT2" sqref="AT2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -485,72 +485,72 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -941,13 +941,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="AQ1:AS1"/>
@@ -957,6 +950,13 @@
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
